--- a/biology/Zoologie/Davidaster/Davidaster.xlsx
+++ b/biology/Zoologie/Davidaster/Davidaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Davidaster est un genre de crinoïde de la famille des Comasteridae (ordre des Comatulida), originaire du golfe du Mexique.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Davidaster a été créé en 1986 par Anne Kathleen Hoggett (d) et Francis W. E. Rowe (d).
 </t>
@@ -542,9 +556,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont deux espèces de comatules fauves, très proches mais distinguées par la taille et la profondeur. Elles se tiennent cachées pendant la journée, et ne laissent émerger que leurs longs bras la nuit, pour se nourrir[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont deux espèces de comatules fauves, très proches mais distinguées par la taille et la profondeur. Elles se tiennent cachées pendant la journée, et ne laissent émerger que leurs longs bras la nuit, pour se nourrir.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (20 juillet 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (20 juillet 2021) :
 Davidaster discoideus (Carpenter, 1888)
 Davidaster rubiginosus (Pourtalès, 1869)
 			Davidaster discoideus
